--- a/doc/文档/教练信息表.xlsx
+++ b/doc/文档/教练信息表.xlsx
@@ -254,7 +254,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +321,15 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -482,7 +491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -505,9 +514,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
@@ -554,6 +560,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -854,7 +872,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -868,14 +886,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.75">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" ht="15">
       <c r="A2" s="1" t="s">
@@ -887,10 +905,10 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -901,7 +919,7 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="5">
@@ -910,10 +928,10 @@
       <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -921,84 +939,84 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="18"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <v>0</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -1006,85 +1024,85 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="18"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="18"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>9</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="15">
         <v>0</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>8</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16" t="s">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -1092,122 +1110,122 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>9</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16" t="s">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5">
-      <c r="A15" s="16"/>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5">
-      <c r="A16" s="16"/>
-      <c r="B16" s="14" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5">
-      <c r="A17" s="22"/>
-      <c r="B17" s="14" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="21">
         <v>1</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5">
-      <c r="A18" s="22"/>
-      <c r="B18" s="14" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="21">
         <v>1</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="8" t="s">
+      <c r="E18" s="16"/>
+      <c r="F18" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <v>10</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <v>11</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="14">
         <v>0</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="9"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
